--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col9a3-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col9a3-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.426842</v>
+        <v>0.8323436666666666</v>
       </c>
       <c r="H2">
-        <v>1.280526</v>
+        <v>2.497031</v>
       </c>
       <c r="I2">
-        <v>0.1306859346518278</v>
+        <v>0.1798430883133117</v>
       </c>
       <c r="J2">
-        <v>0.1400052699078422</v>
+        <v>0.1835562272716915</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.00535</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N2">
-        <v>0.01605</v>
+        <v>1.628688</v>
       </c>
       <c r="O2">
-        <v>0.003377959937395142</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P2">
-        <v>0.004244941312694542</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q2">
-        <v>0.0022836047</v>
+        <v>0.4518760472586666</v>
       </c>
       <c r="R2">
-        <v>0.0205524423</v>
+        <v>4.066884425327999</v>
       </c>
       <c r="S2">
-        <v>0.0004414518516349139</v>
+        <v>0.09854434364016047</v>
       </c>
       <c r="T2">
-        <v>0.0005943141542267495</v>
+        <v>0.100968844543998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.426842</v>
+        <v>0.8323436666666666</v>
       </c>
       <c r="H3">
-        <v>1.280526</v>
+        <v>2.497031</v>
       </c>
       <c r="I3">
-        <v>0.1306859346518278</v>
+        <v>0.1798430883133117</v>
       </c>
       <c r="J3">
-        <v>0.1400052699078422</v>
+        <v>0.1835562272716915</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.3904073333333333</v>
+        <v>0.011478</v>
       </c>
       <c r="N3">
-        <v>1.171222</v>
+        <v>0.022956</v>
       </c>
       <c r="O3">
-        <v>0.2465009964981815</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P3">
-        <v>0.3097675173916964</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q3">
-        <v>0.1666422469746667</v>
+        <v>0.009553640605999999</v>
       </c>
       <c r="R3">
-        <v>1.499780222772</v>
+        <v>0.057321843636</v>
       </c>
       <c r="S3">
-        <v>0.03221421311997179</v>
+        <v>0.002083441352122252</v>
       </c>
       <c r="T3">
-        <v>0.04336908488110668</v>
+        <v>0.001423133709680442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.426842</v>
+        <v>0.8323436666666666</v>
       </c>
       <c r="H4">
-        <v>1.280526</v>
+        <v>2.497031</v>
       </c>
       <c r="I4">
-        <v>0.1306859346518278</v>
+        <v>0.1798430883133117</v>
       </c>
       <c r="J4">
-        <v>0.1400052699078422</v>
+        <v>0.1835562272716915</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.9704175</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N4">
-        <v>1.940835</v>
+        <v>1.309228</v>
       </c>
       <c r="O4">
-        <v>0.6127161565508693</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P4">
-        <v>0.5133165528114338</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q4">
-        <v>0.414214946535</v>
+        <v>0.3632425446742222</v>
       </c>
       <c r="R4">
-        <v>2.48528967921</v>
+        <v>3.269182902068</v>
       </c>
       <c r="S4">
-        <v>0.080073383595126</v>
+        <v>0.07921530332102897</v>
       </c>
       <c r="T4">
-        <v>0.07186702252452795</v>
+        <v>0.08116424901801296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.426842</v>
+        <v>1.199237333333333</v>
       </c>
       <c r="H5">
-        <v>1.280526</v>
+        <v>3.597712</v>
       </c>
       <c r="I5">
-        <v>0.1306859346518278</v>
+        <v>0.2591171823424945</v>
       </c>
       <c r="J5">
-        <v>0.1400052699078422</v>
+        <v>0.264467057689749</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2176213333333333</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N5">
-        <v>0.652864</v>
+        <v>1.628688</v>
       </c>
       <c r="O5">
-        <v>0.1374048870135541</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P5">
-        <v>0.1726709884841751</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q5">
-        <v>0.09288992516266667</v>
+        <v>0.6510611513173332</v>
       </c>
       <c r="R5">
-        <v>0.8360093264640001</v>
+        <v>5.859550361856</v>
       </c>
       <c r="S5">
-        <v>0.01795688608509511</v>
+        <v>0.1419822852204594</v>
       </c>
       <c r="T5">
-        <v>0.02417484834798085</v>
+        <v>0.1454754961560654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>3.597712</v>
       </c>
       <c r="I6">
-        <v>0.3671697062988934</v>
+        <v>0.2591171823424945</v>
       </c>
       <c r="J6">
-        <v>0.393352918730805</v>
+        <v>0.264467057689749</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.00535</v>
+        <v>0.011478</v>
       </c>
       <c r="N6">
-        <v>0.01605</v>
+        <v>0.022956</v>
       </c>
       <c r="O6">
-        <v>0.003377959937395142</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P6">
-        <v>0.004244941312694542</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q6">
-        <v>0.006415919733333332</v>
+        <v>0.013764846112</v>
       </c>
       <c r="R6">
-        <v>0.0577432776</v>
+        <v>0.08258907667200001</v>
       </c>
       <c r="S6">
-        <v>0.001240284558102803</v>
+        <v>0.003001813735522888</v>
       </c>
       <c r="T6">
-        <v>0.001669760055189373</v>
+        <v>0.002050445198686697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>3.597712</v>
       </c>
       <c r="I7">
-        <v>0.3671697062988934</v>
+        <v>0.2591171823424945</v>
       </c>
       <c r="J7">
-        <v>0.393352918730805</v>
+        <v>0.264467057689749</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3904073333333333</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N7">
-        <v>1.171222</v>
+        <v>1.309228</v>
       </c>
       <c r="O7">
-        <v>0.2465009964981815</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P7">
-        <v>0.3097675173916964</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q7">
-        <v>0.4681910493404444</v>
+        <v>0.5233583651484445</v>
       </c>
       <c r="R7">
-        <v>4.213719444064</v>
+        <v>4.710225286336001</v>
       </c>
       <c r="S7">
-        <v>0.09050769848662187</v>
+        <v>0.1141330833865121</v>
       </c>
       <c r="T7">
-        <v>0.1218479570940192</v>
+        <v>0.1169411163349968</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.199237333333333</v>
+        <v>1.349471333333333</v>
       </c>
       <c r="H8">
-        <v>3.597712</v>
+        <v>4.048414</v>
       </c>
       <c r="I8">
-        <v>0.3671697062988934</v>
+        <v>0.291577988631638</v>
       </c>
       <c r="J8">
-        <v>0.393352918730805</v>
+        <v>0.2975980675746107</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9704175</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N8">
-        <v>1.940835</v>
+        <v>1.628688</v>
       </c>
       <c r="O8">
-        <v>0.6127161565508693</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P8">
-        <v>0.5133165528114338</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q8">
-        <v>1.16376089492</v>
+        <v>0.7326225889813334</v>
       </c>
       <c r="R8">
-        <v>6.982565369520001</v>
+        <v>6.593603300832</v>
       </c>
       <c r="S8">
-        <v>0.2249708112453695</v>
+        <v>0.1597690619033711</v>
       </c>
       <c r="T8">
-        <v>0.2019145642812129</v>
+        <v>0.1636998835079522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.199237333333333</v>
+        <v>1.349471333333333</v>
       </c>
       <c r="H9">
-        <v>3.597712</v>
+        <v>4.048414</v>
       </c>
       <c r="I9">
-        <v>0.3671697062988934</v>
+        <v>0.291577988631638</v>
       </c>
       <c r="J9">
-        <v>0.393352918730805</v>
+        <v>0.2975980675746107</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.2176213333333333</v>
+        <v>0.011478</v>
       </c>
       <c r="N9">
-        <v>0.652864</v>
+        <v>0.022956</v>
       </c>
       <c r="O9">
-        <v>0.1374048870135541</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P9">
-        <v>0.1726709884841751</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q9">
-        <v>0.2609796274631111</v>
+        <v>0.015489231964</v>
       </c>
       <c r="R9">
-        <v>2.348816647168</v>
+        <v>0.09293539178400001</v>
       </c>
       <c r="S9">
-        <v>0.05045091200879927</v>
+        <v>0.003377864807489637</v>
       </c>
       <c r="T9">
-        <v>0.06792063730038349</v>
+        <v>0.002307313939691673</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5942793333333333</v>
+        <v>1.349471333333333</v>
       </c>
       <c r="H10">
-        <v>1.782838</v>
+        <v>4.048414</v>
       </c>
       <c r="I10">
-        <v>0.1819501129713847</v>
+        <v>0.291577988631638</v>
       </c>
       <c r="J10">
-        <v>0.1949251443484612</v>
+        <v>0.2975980675746107</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.00535</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N10">
-        <v>0.01605</v>
+        <v>1.309228</v>
       </c>
       <c r="O10">
-        <v>0.003377959937395142</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P10">
-        <v>0.004244941312694542</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q10">
-        <v>0.003179394433333333</v>
+        <v>0.5889218849324446</v>
       </c>
       <c r="R10">
-        <v>0.02861454989999999</v>
+        <v>5.300296964392</v>
       </c>
       <c r="S10">
-        <v>0.0006146201922218578</v>
+        <v>0.1284310619207772</v>
       </c>
       <c r="T10">
-        <v>0.0008274457981277299</v>
+        <v>0.1315908701269668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5942793333333333</v>
+        <v>0.280868</v>
       </c>
       <c r="H11">
-        <v>1.782838</v>
+        <v>0.561736</v>
       </c>
       <c r="I11">
-        <v>0.1819501129713847</v>
+        <v>0.06068667372777899</v>
       </c>
       <c r="J11">
-        <v>0.1949251443484612</v>
+        <v>0.04129309603392625</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3904073333333333</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N11">
-        <v>1.171222</v>
+        <v>1.628688</v>
       </c>
       <c r="O11">
-        <v>0.2465009964981815</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P11">
-        <v>0.3097675173916964</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q11">
-        <v>0.2320110097817777</v>
+        <v>0.152482113728</v>
       </c>
       <c r="R11">
-        <v>2.088099088036</v>
+        <v>0.9148926823679999</v>
       </c>
       <c r="S11">
-        <v>0.04485088416040304</v>
+        <v>0.03325303455526735</v>
       </c>
       <c r="T11">
-        <v>0.06038147804204089</v>
+        <v>0.02271410921961613</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1154,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5942793333333333</v>
+        <v>0.280868</v>
       </c>
       <c r="H12">
-        <v>1.782838</v>
+        <v>0.561736</v>
       </c>
       <c r="I12">
-        <v>0.1819501129713847</v>
+        <v>0.06068667372777899</v>
       </c>
       <c r="J12">
-        <v>0.1949251443484612</v>
+        <v>0.04129309603392625</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.9704175</v>
+        <v>0.011478</v>
       </c>
       <c r="N12">
-        <v>1.940835</v>
+        <v>0.022956</v>
       </c>
       <c r="O12">
-        <v>0.6127161565508693</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P12">
-        <v>0.5133165528114338</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q12">
-        <v>0.576699064955</v>
+        <v>0.003223802904</v>
       </c>
       <c r="R12">
-        <v>3.46019438973</v>
+        <v>0.012895211616</v>
       </c>
       <c r="S12">
-        <v>0.1114837739038233</v>
+        <v>0.0007030413387193103</v>
       </c>
       <c r="T12">
-        <v>0.1000583031532232</v>
+        <v>0.0003201503856143767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5942793333333333</v>
+        <v>0.280868</v>
       </c>
       <c r="H13">
-        <v>1.782838</v>
+        <v>0.561736</v>
       </c>
       <c r="I13">
-        <v>0.1819501129713847</v>
+        <v>0.06068667372777899</v>
       </c>
       <c r="J13">
-        <v>0.1949251443484612</v>
+        <v>0.04129309603392625</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2176213333333333</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N13">
-        <v>0.652864</v>
+        <v>1.309228</v>
       </c>
       <c r="O13">
-        <v>0.1374048870135541</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P13">
-        <v>0.1726709884841751</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q13">
-        <v>0.1293278608924444</v>
+        <v>0.1225734166346667</v>
       </c>
       <c r="R13">
-        <v>1.163950748032</v>
+        <v>0.7354404998080001</v>
       </c>
       <c r="S13">
-        <v>0.02500083471493651</v>
+        <v>0.02673059783379233</v>
       </c>
       <c r="T13">
-        <v>0.0336579173550693</v>
+        <v>0.01825883642869573</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6522289999999999</v>
+        <v>0.9662456666666667</v>
       </c>
       <c r="H14">
-        <v>1.304458</v>
+        <v>2.898737</v>
       </c>
       <c r="I14">
-        <v>0.1996925243345945</v>
+        <v>0.2087750669847768</v>
       </c>
       <c r="J14">
-        <v>0.1426218556854324</v>
+        <v>0.2130855514300228</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.00535</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N14">
-        <v>0.01605</v>
+        <v>1.628688</v>
       </c>
       <c r="O14">
-        <v>0.003377959937395142</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P14">
-        <v>0.004244941312694542</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q14">
-        <v>0.003489425149999999</v>
+        <v>0.5245709074506666</v>
       </c>
       <c r="R14">
-        <v>0.0209365509</v>
+        <v>4.721138167056</v>
       </c>
       <c r="S14">
-        <v>0.0006745533469995649</v>
+        <v>0.1143975125060313</v>
       </c>
       <c r="T14">
-        <v>0.0006054214072922511</v>
+        <v>0.1172120512428301</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6522289999999999</v>
+        <v>0.9662456666666667</v>
       </c>
       <c r="H15">
-        <v>1.304458</v>
+        <v>2.898737</v>
       </c>
       <c r="I15">
-        <v>0.1996925243345945</v>
+        <v>0.2087750669847768</v>
       </c>
       <c r="J15">
-        <v>0.1426218556854324</v>
+        <v>0.2130855514300228</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.3904073333333333</v>
+        <v>0.011478</v>
       </c>
       <c r="N15">
-        <v>1.171222</v>
+        <v>0.022956</v>
       </c>
       <c r="O15">
-        <v>0.2465009964981815</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P15">
-        <v>0.3097675173916964</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q15">
-        <v>0.2546349846126666</v>
+        <v>0.011090567762</v>
       </c>
       <c r="R15">
-        <v>1.527809907676</v>
+        <v>0.066543406572</v>
       </c>
       <c r="S15">
-        <v>0.04922440624171492</v>
+        <v>0.002418611757213587</v>
       </c>
       <c r="T15">
-        <v>0.04417961816147321</v>
+        <v>0.001652078144083095</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,365 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6522289999999999</v>
+        <v>0.9662456666666667</v>
       </c>
       <c r="H16">
-        <v>1.304458</v>
+        <v>2.898737</v>
       </c>
       <c r="I16">
-        <v>0.1996925243345945</v>
+        <v>0.2087750669847768</v>
       </c>
       <c r="J16">
-        <v>0.1426218556854324</v>
+        <v>0.2130855514300228</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.9704175</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N16">
-        <v>1.940835</v>
+        <v>1.309228</v>
       </c>
       <c r="O16">
-        <v>0.6127161565508693</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P16">
-        <v>0.5133165528114338</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q16">
-        <v>0.6329344356075</v>
+        <v>0.4216786272262222</v>
       </c>
       <c r="R16">
-        <v>2.53173774243</v>
+        <v>3.795107645036</v>
       </c>
       <c r="S16">
-        <v>0.1223548360022337</v>
+        <v>0.09195894272153192</v>
       </c>
       <c r="T16">
-        <v>0.07321015931601597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.6522289999999999</v>
-      </c>
-      <c r="H17">
-        <v>1.304458</v>
-      </c>
-      <c r="I17">
-        <v>0.1996925243345945</v>
-      </c>
-      <c r="J17">
-        <v>0.1426218556854324</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.2176213333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.652864</v>
-      </c>
-      <c r="O17">
-        <v>0.1374048870135541</v>
-      </c>
-      <c r="P17">
-        <v>0.1726709884841751</v>
-      </c>
-      <c r="Q17">
-        <v>0.1419389446186667</v>
-      </c>
-      <c r="R17">
-        <v>0.8516336677119999</v>
-      </c>
-      <c r="S17">
-        <v>0.02743872874364636</v>
-      </c>
-      <c r="T17">
-        <v>0.02462665680065098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.3935786666666667</v>
-      </c>
-      <c r="H18">
-        <v>1.180736</v>
-      </c>
-      <c r="I18">
-        <v>0.1205017217432997</v>
-      </c>
-      <c r="J18">
-        <v>0.1290948113274592</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.00535</v>
-      </c>
-      <c r="N18">
-        <v>0.01605</v>
-      </c>
-      <c r="O18">
-        <v>0.003377959937395142</v>
-      </c>
-      <c r="P18">
-        <v>0.004244941312694542</v>
-      </c>
-      <c r="Q18">
-        <v>0.002105645866666667</v>
-      </c>
-      <c r="R18">
-        <v>0.0189508128</v>
-      </c>
-      <c r="S18">
-        <v>0.0004070499884360035</v>
-      </c>
-      <c r="T18">
-        <v>0.0005479998978584388</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.3935786666666667</v>
-      </c>
-      <c r="H19">
-        <v>1.180736</v>
-      </c>
-      <c r="I19">
-        <v>0.1205017217432997</v>
-      </c>
-      <c r="J19">
-        <v>0.1290948113274592</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.3904073333333333</v>
-      </c>
-      <c r="N19">
-        <v>1.171222</v>
-      </c>
-      <c r="O19">
-        <v>0.2465009964981815</v>
-      </c>
-      <c r="P19">
-        <v>0.3097675173916964</v>
-      </c>
-      <c r="Q19">
-        <v>0.1536559977102222</v>
-      </c>
-      <c r="R19">
-        <v>1.382903979392</v>
-      </c>
-      <c r="S19">
-        <v>0.02970379448946996</v>
-      </c>
-      <c r="T19">
-        <v>0.03998937921305648</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.3935786666666667</v>
-      </c>
-      <c r="H20">
-        <v>1.180736</v>
-      </c>
-      <c r="I20">
-        <v>0.1205017217432997</v>
-      </c>
-      <c r="J20">
-        <v>0.1290948113274592</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.9704175</v>
-      </c>
-      <c r="N20">
-        <v>1.940835</v>
-      </c>
-      <c r="O20">
-        <v>0.6127161565508693</v>
-      </c>
-      <c r="P20">
-        <v>0.5133165528114338</v>
-      </c>
-      <c r="Q20">
-        <v>0.3819356257600001</v>
-      </c>
-      <c r="R20">
-        <v>2.29161375456</v>
-      </c>
-      <c r="S20">
-        <v>0.07383335180431691</v>
-      </c>
-      <c r="T20">
-        <v>0.06626650353645379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.3935786666666667</v>
-      </c>
-      <c r="H21">
-        <v>1.180736</v>
-      </c>
-      <c r="I21">
-        <v>0.1205017217432997</v>
-      </c>
-      <c r="J21">
-        <v>0.1290948113274592</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.2176213333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.652864</v>
-      </c>
-      <c r="O21">
-        <v>0.1374048870135541</v>
-      </c>
-      <c r="P21">
-        <v>0.1726709884841751</v>
-      </c>
-      <c r="Q21">
-        <v>0.08565111421155557</v>
-      </c>
-      <c r="R21">
-        <v>0.770860027904</v>
-      </c>
-      <c r="S21">
-        <v>0.01655752546107682</v>
-      </c>
-      <c r="T21">
-        <v>0.02229092868009046</v>
+        <v>0.09422142204310954</v>
       </c>
     </row>
   </sheetData>
